--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-medicationcode-vs.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -115,19 +115,19 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeCommon_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT13_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT7_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT9_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeYJ_CS</t>
+    <t>urn:oid:1.2.392.100495.20.1.81</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.402.1</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.403.2</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.403.1</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.1.73</t>
   </si>
 </sst>
 </file>
